--- a/uploads/rules.xlsx
+++ b/uploads/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\u01\workspace\No.1-SQL-Assist\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3C191-B0E4-474E-B7EE-EB0E8016B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7882035-200E-4B80-80FD-F84F4E7A25E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RULE</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -44,18 +47,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -400,20 +401,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>